--- a/uiAutomation/src/main/java/com/testing/automation/data/TestData.xlsx
+++ b/uiAutomation/src/main/java/com/testing/automation/data/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>FirstName</t>
   </si>
@@ -55,15 +55,6 @@
   </si>
   <si>
     <t>Manish2</t>
-  </si>
-  <si>
-    <t>Manish3</t>
-  </si>
-  <si>
-    <t>Manish4</t>
-  </si>
-  <si>
-    <t>Manish5</t>
   </si>
 </sst>
 </file>
@@ -396,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -471,66 +462,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
